--- a/src/db_export.xlsx
+++ b/src/db_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihai\Documents\GitHub\LTE-Analytics\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3214AB4-2CC1-4533-973F-3BEBB8E00F29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FA30BA-43D1-4B99-B739-E53CF3B095D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DS39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:DS39"/>
+    <sheetView tabSelected="1" topLeftCell="X3" workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14471,10 +14471,10 @@
         <v>5</v>
       </c>
       <c r="AA36">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AB36">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -14543,10 +14543,10 @@
         <v>7</v>
       </c>
       <c r="AY36">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AZ36">
-        <v>-50</v>
+        <v>-86</v>
       </c>
       <c r="BA36">
         <v>0</v>
@@ -14842,10 +14842,10 @@
         <v>5</v>
       </c>
       <c r="AA37">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AB37">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -14914,10 +14914,10 @@
         <v>7</v>
       </c>
       <c r="AY37">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AZ37">
-        <v>-50</v>
+        <v>-86</v>
       </c>
       <c r="BA37">
         <v>0</v>
@@ -15213,10 +15213,10 @@
         <v>5</v>
       </c>
       <c r="AA38">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AB38">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -15285,10 +15285,10 @@
         <v>7</v>
       </c>
       <c r="AY38">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AZ38">
-        <v>-50</v>
+        <v>-86</v>
       </c>
       <c r="BA38">
         <v>0</v>
@@ -15584,10 +15584,10 @@
         <v>5</v>
       </c>
       <c r="AA39">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AB39">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -15656,10 +15656,10 @@
         <v>7</v>
       </c>
       <c r="AY39">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AZ39">
-        <v>-50</v>
+        <v>-86</v>
       </c>
       <c r="BA39">
         <v>0</v>

--- a/src/db_export.xlsx
+++ b/src/db_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihai\Documents\GitHub\LTE-Analytics\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3214AB4-2CC1-4533-973F-3BEBB8E00F29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174EED48-51FB-40E7-9AF3-F33E65695496}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DS39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:DS39"/>
+    <sheetView tabSelected="1" topLeftCell="AA2" workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34:AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14471,10 +14471,10 @@
         <v>5</v>
       </c>
       <c r="AA36">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AB36">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -14543,10 +14543,10 @@
         <v>7</v>
       </c>
       <c r="AY36">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AZ36">
-        <v>-50</v>
+        <v>-86</v>
       </c>
       <c r="BA36">
         <v>0</v>
@@ -14842,10 +14842,10 @@
         <v>5</v>
       </c>
       <c r="AA37">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AB37">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -14914,10 +14914,10 @@
         <v>7</v>
       </c>
       <c r="AY37">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AZ37">
-        <v>-50</v>
+        <v>-86</v>
       </c>
       <c r="BA37">
         <v>0</v>
@@ -15213,10 +15213,10 @@
         <v>5</v>
       </c>
       <c r="AA38">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AB38">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -15285,10 +15285,10 @@
         <v>7</v>
       </c>
       <c r="AY38">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AZ38">
-        <v>-50</v>
+        <v>-86</v>
       </c>
       <c r="BA38">
         <v>0</v>
@@ -15584,10 +15584,10 @@
         <v>5</v>
       </c>
       <c r="AA39">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AB39">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -15656,10 +15656,10 @@
         <v>7</v>
       </c>
       <c r="AY39">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AZ39">
-        <v>-50</v>
+        <v>-86</v>
       </c>
       <c r="BA39">
         <v>0</v>

--- a/src/db_export.xlsx
+++ b/src/db_export.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihai\Documents\GitHub\LTE-Analytics\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174EED48-51FB-40E7-9AF3-F33E65695496}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6755F63B-7504-447D-958E-5D95370AF5E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db_export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="146">
   <si>
     <t>bs_id</t>
   </si>
@@ -452,6 +459,12 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>mac_stats.total_bytes_sdus_ul</t>
+  </si>
+  <si>
+    <t>mac_stats.total_bytes_sdus_dl</t>
   </si>
 </sst>
 </file>
@@ -1292,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DS39"/>
+  <dimension ref="A1:DU39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA2" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34:AA39"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AY11" sqref="AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,10 +1416,12 @@
     <col min="120" max="120" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="4" bestFit="1" customWidth="1"/>
+    <col min="123" max="124" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="4" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1774,10 +1789,16 @@
         <v>121</v>
       </c>
       <c r="DS1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DU1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10005</v>
       </c>
@@ -2144,11 +2165,17 @@
       <c r="DR2">
         <v>1</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DS2">
+        <v>2181380</v>
+      </c>
+      <c r="DT2">
+        <v>389398</v>
+      </c>
+      <c r="DU2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10005</v>
       </c>
@@ -2515,11 +2542,17 @@
       <c r="DR3">
         <v>1</v>
       </c>
-      <c r="DS3" t="s">
+      <c r="DS3">
+        <v>408330</v>
+      </c>
+      <c r="DT3">
+        <v>22947</v>
+      </c>
+      <c r="DU3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10005</v>
       </c>
@@ -2886,11 +2919,17 @@
       <c r="DR4">
         <v>1</v>
       </c>
-      <c r="DS4" t="s">
+      <c r="DS4">
+        <v>1709698</v>
+      </c>
+      <c r="DT4">
+        <v>202875</v>
+      </c>
+      <c r="DU4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10005</v>
       </c>
@@ -3257,11 +3296,17 @@
       <c r="DR5">
         <v>1</v>
       </c>
-      <c r="DS5" t="s">
+      <c r="DS5">
+        <v>1790459</v>
+      </c>
+      <c r="DT5">
+        <v>1232006</v>
+      </c>
+      <c r="DU5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -3628,11 +3673,17 @@
       <c r="DR6">
         <v>1</v>
       </c>
-      <c r="DS6" t="s">
+      <c r="DS6">
+        <v>1013564</v>
+      </c>
+      <c r="DT6">
+        <v>811077</v>
+      </c>
+      <c r="DU6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10005</v>
       </c>
@@ -3999,11 +4050,17 @@
       <c r="DR7">
         <v>1</v>
       </c>
-      <c r="DS7" t="s">
+      <c r="DS7">
+        <v>930714</v>
+      </c>
+      <c r="DT7">
+        <v>1308273</v>
+      </c>
+      <c r="DU7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10005</v>
       </c>
@@ -4370,11 +4427,17 @@
       <c r="DR8">
         <v>1</v>
       </c>
-      <c r="DS8" t="s">
+      <c r="DS8">
+        <v>467606</v>
+      </c>
+      <c r="DT8">
+        <v>1603931</v>
+      </c>
+      <c r="DU8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10005</v>
       </c>
@@ -4741,11 +4804,17 @@
       <c r="DR9">
         <v>1</v>
       </c>
-      <c r="DS9" t="s">
+      <c r="DS9">
+        <v>2061991</v>
+      </c>
+      <c r="DT9">
+        <v>1366987</v>
+      </c>
+      <c r="DU9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10005</v>
       </c>
@@ -5112,11 +5181,17 @@
       <c r="DR10">
         <v>1</v>
       </c>
-      <c r="DS10" t="s">
+      <c r="DS10">
+        <v>1266541</v>
+      </c>
+      <c r="DT10">
+        <v>1464601</v>
+      </c>
+      <c r="DU10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10005</v>
       </c>
@@ -5483,11 +5558,17 @@
       <c r="DR11">
         <v>1</v>
       </c>
-      <c r="DS11" t="s">
+      <c r="DS11">
+        <v>1138429</v>
+      </c>
+      <c r="DT11">
+        <v>464549</v>
+      </c>
+      <c r="DU11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10005</v>
       </c>
@@ -5854,11 +5935,17 @@
       <c r="DR12">
         <v>1</v>
       </c>
-      <c r="DS12" t="s">
+      <c r="DS12">
+        <v>820139</v>
+      </c>
+      <c r="DT12">
+        <v>768507</v>
+      </c>
+      <c r="DU12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10005</v>
       </c>
@@ -6225,11 +6312,17 @@
       <c r="DR13">
         <v>1</v>
       </c>
-      <c r="DS13" t="s">
+      <c r="DS13">
+        <v>567754</v>
+      </c>
+      <c r="DT13">
+        <v>785640</v>
+      </c>
+      <c r="DU13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10005</v>
       </c>
@@ -6596,11 +6689,17 @@
       <c r="DR14">
         <v>1</v>
       </c>
-      <c r="DS14" t="s">
+      <c r="DS14">
+        <v>1421581</v>
+      </c>
+      <c r="DT14">
+        <v>1128966</v>
+      </c>
+      <c r="DU14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10005</v>
       </c>
@@ -6967,11 +7066,17 @@
       <c r="DR15">
         <v>1</v>
       </c>
-      <c r="DS15" t="s">
+      <c r="DS15">
+        <v>1305158</v>
+      </c>
+      <c r="DT15">
+        <v>491107</v>
+      </c>
+      <c r="DU15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -7338,11 +7443,17 @@
       <c r="DR16">
         <v>1</v>
       </c>
-      <c r="DS16" t="s">
+      <c r="DS16">
+        <v>925921</v>
+      </c>
+      <c r="DT16">
+        <v>824512</v>
+      </c>
+      <c r="DU16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10005</v>
       </c>
@@ -7709,11 +7820,17 @@
       <c r="DR17">
         <v>1</v>
       </c>
-      <c r="DS17" t="s">
+      <c r="DS17">
+        <v>1567895</v>
+      </c>
+      <c r="DT17">
+        <v>944008</v>
+      </c>
+      <c r="DU17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10005</v>
       </c>
@@ -8080,11 +8197,17 @@
       <c r="DR18">
         <v>1</v>
       </c>
-      <c r="DS18" t="s">
+      <c r="DS18">
+        <v>676513</v>
+      </c>
+      <c r="DT18">
+        <v>1233516</v>
+      </c>
+      <c r="DU18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10005</v>
       </c>
@@ -8451,11 +8574,17 @@
       <c r="DR19">
         <v>1</v>
       </c>
-      <c r="DS19" t="s">
+      <c r="DS19">
+        <v>1591310</v>
+      </c>
+      <c r="DT19">
+        <v>1473157</v>
+      </c>
+      <c r="DU19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10005</v>
       </c>
@@ -8822,11 +8951,17 @@
       <c r="DR20">
         <v>1</v>
       </c>
-      <c r="DS20" t="s">
+      <c r="DS20">
+        <v>421116603</v>
+      </c>
+      <c r="DT20">
+        <v>348616858</v>
+      </c>
+      <c r="DU20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10005</v>
       </c>
@@ -9193,11 +9328,17 @@
       <c r="DR21">
         <v>1</v>
       </c>
-      <c r="DS21" t="s">
+      <c r="DS21">
+        <v>206270049</v>
+      </c>
+      <c r="DT21">
+        <v>47317096</v>
+      </c>
+      <c r="DU21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10005</v>
       </c>
@@ -9564,11 +9705,17 @@
       <c r="DR22">
         <v>1</v>
       </c>
-      <c r="DS22" t="s">
+      <c r="DS22">
+        <v>368851552</v>
+      </c>
+      <c r="DT22">
+        <v>959924893</v>
+      </c>
+      <c r="DU22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10005</v>
       </c>
@@ -9935,11 +10082,17 @@
       <c r="DR23">
         <v>1</v>
       </c>
-      <c r="DS23" t="s">
+      <c r="DS23">
+        <v>266192079</v>
+      </c>
+      <c r="DT23">
+        <v>518328556</v>
+      </c>
+      <c r="DU23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10007</v>
       </c>
@@ -10306,11 +10459,17 @@
       <c r="DR24">
         <v>1</v>
       </c>
-      <c r="DS24" t="s">
+      <c r="DS24">
+        <v>829473271</v>
+      </c>
+      <c r="DT24">
+        <v>726569997</v>
+      </c>
+      <c r="DU24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10007</v>
       </c>
@@ -10677,11 +10836,17 @@
       <c r="DR25">
         <v>1</v>
       </c>
-      <c r="DS25" t="s">
+      <c r="DS25">
+        <v>620693727</v>
+      </c>
+      <c r="DT25">
+        <v>582363392</v>
+      </c>
+      <c r="DU25" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10007</v>
       </c>
@@ -11048,11 +11213,17 @@
       <c r="DR26">
         <v>1</v>
       </c>
-      <c r="DS26" t="s">
+      <c r="DS26">
+        <v>769558814</v>
+      </c>
+      <c r="DT26">
+        <v>290343986</v>
+      </c>
+      <c r="DU26" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10007</v>
       </c>
@@ -11419,11 +11590,17 @@
       <c r="DR27">
         <v>1</v>
       </c>
-      <c r="DS27" t="s">
+      <c r="DS27">
+        <v>832938389</v>
+      </c>
+      <c r="DT27">
+        <v>240503411</v>
+      </c>
+      <c r="DU27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10007</v>
       </c>
@@ -11790,11 +11967,17 @@
       <c r="DR28">
         <v>1</v>
       </c>
-      <c r="DS28" t="s">
+      <c r="DS28">
+        <v>942081367</v>
+      </c>
+      <c r="DT28">
+        <v>533237692</v>
+      </c>
+      <c r="DU28" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10007</v>
       </c>
@@ -12161,11 +12344,17 @@
       <c r="DR29">
         <v>1</v>
       </c>
-      <c r="DS29" t="s">
+      <c r="DS29">
+        <v>124697099</v>
+      </c>
+      <c r="DT29">
+        <v>223805214</v>
+      </c>
+      <c r="DU29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10007</v>
       </c>
@@ -12532,11 +12721,17 @@
       <c r="DR30">
         <v>1</v>
       </c>
-      <c r="DS30" t="s">
+      <c r="DS30">
+        <v>774237398</v>
+      </c>
+      <c r="DT30">
+        <v>539297157</v>
+      </c>
+      <c r="DU30" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10007</v>
       </c>
@@ -12903,11 +13098,17 @@
       <c r="DR31">
         <v>1</v>
       </c>
-      <c r="DS31" t="s">
+      <c r="DS31">
+        <v>928331282</v>
+      </c>
+      <c r="DT31">
+        <v>153149709</v>
+      </c>
+      <c r="DU31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10007</v>
       </c>
@@ -13274,11 +13475,17 @@
       <c r="DR32">
         <v>1</v>
       </c>
-      <c r="DS32" t="s">
+      <c r="DS32">
+        <v>900561061</v>
+      </c>
+      <c r="DT32">
+        <v>312333329</v>
+      </c>
+      <c r="DU32" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10007</v>
       </c>
@@ -13645,11 +13852,17 @@
       <c r="DR33">
         <v>1</v>
       </c>
-      <c r="DS33" t="s">
+      <c r="DS33">
+        <v>535259193</v>
+      </c>
+      <c r="DT33">
+        <v>10740734</v>
+      </c>
+      <c r="DU33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10007</v>
       </c>
@@ -14016,11 +14229,17 @@
       <c r="DR34">
         <v>1</v>
       </c>
-      <c r="DS34" t="s">
+      <c r="DS34">
+        <v>371570912</v>
+      </c>
+      <c r="DT34">
+        <v>236147412</v>
+      </c>
+      <c r="DU34" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10007</v>
       </c>
@@ -14387,11 +14606,17 @@
       <c r="DR35">
         <v>1</v>
       </c>
-      <c r="DS35" t="s">
+      <c r="DS35">
+        <v>761176297</v>
+      </c>
+      <c r="DT35">
+        <v>441398229</v>
+      </c>
+      <c r="DU35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10008</v>
       </c>
@@ -14758,11 +14983,17 @@
       <c r="DR36">
         <v>1</v>
       </c>
-      <c r="DS36" t="s">
+      <c r="DS36">
+        <v>355044242</v>
+      </c>
+      <c r="DT36">
+        <v>574243368</v>
+      </c>
+      <c r="DU36" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10008</v>
       </c>
@@ -15129,11 +15360,17 @@
       <c r="DR37">
         <v>1</v>
       </c>
-      <c r="DS37" t="s">
+      <c r="DS37">
+        <v>509939727</v>
+      </c>
+      <c r="DT37">
+        <v>671832197</v>
+      </c>
+      <c r="DU37" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10008</v>
       </c>
@@ -15500,11 +15737,17 @@
       <c r="DR38">
         <v>1</v>
       </c>
-      <c r="DS38" t="s">
+      <c r="DS38">
+        <v>48838849</v>
+      </c>
+      <c r="DT38">
+        <v>759663678</v>
+      </c>
+      <c r="DU38" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10008</v>
       </c>
@@ -15871,7 +16114,13 @@
       <c r="DR39">
         <v>1</v>
       </c>
-      <c r="DS39" t="s">
+      <c r="DS39">
+        <v>233512131</v>
+      </c>
+      <c r="DT39">
+        <v>438259102</v>
+      </c>
+      <c r="DU39" t="s">
         <v>142</v>
       </c>
     </row>
